--- a/excel/신촌술집.xlsx
+++ b/excel/신촌술집.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,44 +468,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>브릭스5221맥주 신촌점</t>
+          <t>룸의정석 신촌점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로9길 10-3</t>
+          <t>서울 서대문구 연세로5가길 8-3 2층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00']]</t>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1335-7132</t>
+          <t>070-8839-0808</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>데이지</t>
+          <t>라운지목화 신촌관</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>스파게티,파스타전문</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로11길 10 2층(창천동)</t>
+          <t>서울 서대문구 연세로7안길 14 1층</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['곧 영업 종료', '22:00에 영업 종료', '22시 0분에 영업 종료'], ['매일', '11:00 - 22:00']]</t>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '16:00 - 03:00', '02:00 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1340-9303</t>
+          <t>0507-1368-3341</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더']]</t>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로9길 10-3</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,12 +776,7372 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>0507-1360-1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>에일크루브루잉 신촌점</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '13:00에 영업 시작', '13시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0507-1377-8663</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>보스포차</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0507-1359-5905</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>청담동포장마차</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>02-363-4377</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>아무술집 신촌점</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0507-1481-8016</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>김씨네심야식당</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>02-6339-1366</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>사케즈키</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0507-1313-0841</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>쿠마네꼬치</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 23 2층</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>수지상회 신촌점</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0507-1483-1330</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>미식가주택</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로 15-5 1층</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0507-1329-9808</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>룸의정석 신촌점</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 8-3 2층</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00']]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>070-8839-0808</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>프라이빗 신촌점</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 10-1 2층</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0507-1441-1665</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>신촌에가면 광대포차</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 19 1층</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['매일', '17:00 - 05:00', '04:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0507-1368-1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>보스포차</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0507-1359-5905</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>현명식탁B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0507-1472-1051</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>역전포장마차 신촌점</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 26 2층</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['- 재료소진시까지 재료소진시 마감']]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0507-1343-3323</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>기중상점</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 18 2층</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '18:00 - 05:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '18:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0507-1468-0989</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>장미맨숀 신촌점</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 18 2층</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0507-1314-3143</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>교토우마이</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 8-6 2층 장미맨숀 신촌점</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0507-1315-2816</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>수달산장</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 1 1층 / 1지층</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0507-1328-2899</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>술수</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>서울 마포구 백범로16안길 25 1층</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['- 매일 4시부터 문을 열고 일요일에는 닫습니다.']]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0507-1415-1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>건어물녀</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로21길 33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0507-1406-3671</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>서른즈음에</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로21길 33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0507-1362-3438</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>콘티키빠</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 35 2층 서른즈음에</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>010-2105-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>투비위드유</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>010-3168-2826</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>플래시백</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 지하1층</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0507-1392-5885</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>연어꽃</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 37 1층</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화(7/11)', '휴무'], ['수(7/12)', '휴무'], ['목(7/13)', '휴무'], ['금(7/14)', '휴무'], ['토(7/15)', '휴무'], ['07/01-08/31 휴무']]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0507-1483-4323</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>이자카야 연정</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로23길 24 2층 일부</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0507-1370-9339</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>금별맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로23길 24 2층 일부</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>02-336-5071</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>역전포장마차 홍대점</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 14 1층</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0507-1376-3340</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>우리들의공간</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로 183 지하1층</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>02-365-6030</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>룸의정석 신촌점</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로2길 101-10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>070-8839-0808</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>라운지목화 신촌관</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 14 1층</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '16:00 - 03:00', '02:00 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0507-1368-3341</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>쿠시노주방</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>010-7245-0503</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>주무대</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0507-1440-1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>브릭스5221맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0507-1335-7132</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>안테이쿠</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 10-3</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0507-1329-9677</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>찰리주막 신촌점</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10-5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:00 - 05:00'], ['일', '17:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>02-332-2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>집시포차</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10 2층</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0507-1343-1497</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>밤말</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 220-5 1.5층</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0507-1313-5446</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>매거진 스탠딩</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0507-1360-1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>에일크루브루잉 신촌점</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '13:00에 영업 시작', '13시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0507-1377-8663</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>보스포차</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0507-1359-5905</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>청담동포장마차</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>02-363-4377</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>아무술집 신촌점</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0507-1481-8016</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>김씨네심야식당</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>02-6339-1366</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>사케즈키</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0507-1313-0841</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>쿠마네꼬치</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 23 2층</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>수지상회 신촌점</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0507-1483-1330</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>미식가주택</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로 15-5 1층</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0507-1329-9808</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>룸의정석 신촌점</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 8-3 2층</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00']]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>070-8839-0808</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>프라이빗 신촌점</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 10-1 2층</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0507-1441-1665</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>신촌에가면 광대포차</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 19 1층</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['매일', '17:00 - 05:00', '04:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0507-1368-1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>보스포차</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0507-1359-5905</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>현명식탁B1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 2층</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0507-1472-1051</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>역전포장마차 신촌점</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 26 2층</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['- 재료소진시까지 재료소진시 마감']]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0507-1343-3323</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>기중상점</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 18 2층</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '18:00 - 05:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '18:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0507-1468-0989</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>장미맨숀 신촌점</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 18 2층</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0507-1314-3143</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>교토우마이</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 8-6 2층 장미맨숀 신촌점</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0507-1315-2816</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>수달산장</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 1 1층 / 1지층</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0507-1328-2899</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>술수</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>서울 마포구 백범로16안길 25 1층</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['- 매일 4시부터 문을 열고 일요일에는 닫습니다.']]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0507-1415-1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>건어물녀</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로21길 33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '14:00 - 05:00'], ['일', '14:00 - 04:00'], ['월', '14:00 - 04:00'], ['화', '14:00 - 04:00'], ['수', '14:00 - 04:00'], ['목', '14:00 - 04:00'], ['금', '14:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0507-1406-3671</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>서른즈음에</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로21길 33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0507-1362-3438</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>콘티키빠</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 35 2층 서른즈음에</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>010-2105-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>투비위드유</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>010-3168-2826</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>플래시백</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 지하1층</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0507-1392-5885</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>연어꽃</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 37 1층</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화(7/11)', '휴무'], ['수(7/12)', '휴무'], ['목(7/13)', '휴무'], ['금(7/14)', '휴무'], ['토(7/15)', '휴무'], ['07/01-08/31 휴무']]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0507-1483-4323</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>이자카야 연정</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로23길 24 2층 일부</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '16:00 - 03:00'], ['일', '16:00 - 03:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0507-1370-9339</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>금별맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로23길 24 2층 일부</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>02-336-5071</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>역전포장마차 홍대점</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 14 1층</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0507-1376-3340</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>우리들의공간</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로 183 지하1층</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>02-365-6030</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>라운지목화 신촌관</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로2길 101-10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0507-1368-3341</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>똥꼬하우스</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 32 1층 똥꼬하우스</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>02-365-2611</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>산울림1992</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 32 1층 똥꼬하우스</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기'], ['나혼자산다 450회, 22.06.17.', '2022년 6월 17일', ' 비빔파스타/조개탕/육전', '펼쳐보기'], [''], ['']]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0507-1417-0352</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>용용선생 신촌점</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>02-336-5261</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>하우스라운지</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 32 지하1층</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0507-1407-2052</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>헤븐</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 32 지하1층</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>070-7585-8413</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>너스레</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>서울 서대문구 이화여대7길 22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['- 공휴일엔 11시까지 영업합니다']]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>02-364-2221</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>심야식당하스</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>서울 서대문구 이화여대7길 22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>070-8888-0198</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>꿀뱅이</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0507-1316-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>명성관</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 212-5 1층</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기'], ['생방송오늘저녁 1821회, 22.07.12.', '2022년 7월 12일', ' 마라맛마파두부/췅칭윙', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0507-1371-7456</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>슬슬</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>010-3907-0093</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>숲길</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '13:00 - 02:00'], ['일', '13:00 - 02:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>02-322-6080</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>맥주왕명주</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>상수소굴</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0507-1329-0813</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>스카이문 루프탑</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로14길 24 1층</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0507-1381-9226</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>온기</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로3길 7 지하1층 101호</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 14:00', '13:00 라스트오더'], ['화', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['수', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['목', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['금', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더'], ['- 재료소진 시 조기마감 될 수 있는 점 참고해주세요']]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0507-1346-3656</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>하루</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로3길 7 지하1층 101호</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0507-1344-6512</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>하꼬</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 15 1층</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>02-332-5560</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>심야식당 킨빠</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 15 1층</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0507-1419-7237</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>무채색 숲</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 82 1층</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0507-1377-4046</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>크래프트한스 연남점</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로23길 22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>02-336-3342</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>불나방</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로23길 22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0507-1476-2149</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>하나킨</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-26</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0507-1476-2149</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>무명요리사</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-26</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>02-3144-3884</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>무채색</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 3 1층 무명요리사</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['생방송투데이 3239회, 23.02.22.', '2023년 2월 22일', ' 수비드삼겹물수육']]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0507-1354-4046</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>준지의아름다운하루 연남점</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로2길 81 2층</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0507-1403-0710</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>백해</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로2길 86 1층</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>02-332-3534</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>세븐펍</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로2길 86 1층</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>02-332-3534</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>연술집</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로2길 86 1층</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0507-1358-3675</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 36 2층 201호</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>동백상회</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0507-1367-3298</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>미드나잇 키친 연남점</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 5 1층</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0507-1339-9633</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>곤밥</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 5 1층</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>02-336-5157</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>호돌이 호프</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 105</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0507-1389-2487</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>술로름</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로21길 33 B1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 01:00', '00:00 라스트오더'], ['월', '16:00 - 01:00', '00:00 라스트오더'], ['화', '16:00 - 01:00', '00:00 라스트오더'], ['수', '16:00 - 01:00', '00:00 라스트오더'], ['목', '16:00 - 01:00', '00:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0507-1397-3412</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>에어플레인모드</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 36 2층</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '13:00 - 02:00'], ['- 밤12시 이후 방문하실때는 연락주세요!']]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0507-1381-6553</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>모모키친</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 36 2층</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>010-4340-3973</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>디퍼 루프탑</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 3 1층</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0507-1391-0321</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>카시</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로38길 4 2층</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>02-6083-2683</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>모꼬지해산물</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 12</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0507-1377-1051</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>더파이브올스</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 26-5 반지하</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>02-322-3966</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>해달밥술</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 26-5 반지하</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>02-322-4742</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>앵춘</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로30길 17-1 지층</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0507-1311-3281</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>뉴타운</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 81</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0507-1415-9980</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>단골손님 신촌점</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:20에 라스트오더', '2시 20분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0507-1477-4451</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>미스터리</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 20 2층</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:45에 영업 시작', '17시 45분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>02-336-2472</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>판자집</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 41 지하1층</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], [''], ['생방송투데이 1128회, 14.01.14.', '2014년 1월 14일', ' 해물파전']]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>02-312-0044</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 신촌역점</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로2길 29</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>02-3144-4971</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>쿠라</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5나길 8</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>010-2014-8153</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>에일크루</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>서울 마포구 고산길 13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0507-1425-8663</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>하노이맥주밤거리 신촌점</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 7 에일크루</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 23:00', '22:00 라스트오더'], ['월', '15:00 - 23:00', '22:00 라스트오더'], ['화', '15:00 - 23:00', '22:00 라스트오더'], ['수', '15:00 - 23:00', '22:00 라스트오더'], ['목', '15:00 - 23:00', '22:00 라스트오더'], ['금', '15:00 - 24:00', '23:00 라스트오더'], ['토', '14:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0507-1425-8663</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>철길부산집 숲길점</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 7 에일크루</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0507-1325-9950</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>연대포</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로38길 4 지층 부산집</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>02-3141-3131</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>버들골이야기 상수점</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>02-336-3257</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>와인집</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 84</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0507-1349-1448</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>을지OB베어 와우</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 13 B1 와인집</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0507-1349-1448</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>클럽이스케이프</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 13 B1 와인집</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0507-1407-1889</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>레스트 펍</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 16</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0507-1328-8251</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>딤</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 48-5 2층</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 23:00', '22:30 라스트오더'], ['월', '19:30 - 24:00', '23:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수(7/12)', '휴무'], ['목', '19:30 - 24:00', '23:30 라스트오더'], ['금', '19:30 - 24:00', '23:30 라스트오더'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>010-4895-3005</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>씽킹인사이드더박스</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 지층</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>02-312-3812</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>연어상회 신촌점</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '11:00에 영업 시작', '11시 0분에 영업 시작'], ['매일', '11:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0507-1324-3177</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>낮과밤</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0507-1430-0315</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>키친31</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>서울 서대문구 이화여대길 52-35</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0507-1331-6709</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>연남주막1987</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0507-1331-6709</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>역전할머니맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>02-334-4569</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>스탠딩박스</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 1층 역전할머니맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '15:00 - 05:00'], ['일', '15:00 - 04:00'], ['월', '15:00 - 04:00'], ['화', '15:00 - 04:00'], ['수', '15:00 - 04:00'], ['목', '15:00 - 04:00'], ['금', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>02-334-4569</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>술익는마을</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 1층 역전할머니맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>준코 연세대점</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>막걸리싸롱</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['2TV생생정보 465회, 17.12.06.', '2017년 12월 6일', ' 치즈김치전']]</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>02-324-0998</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>토리호람</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 10</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['2TV생생정보 465회, 17.12.06.', '2017년 12월 6일', ' 치즈김치전']]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>02-324-0998</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>바 틸트</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 10</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>02-322-8279</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>젊은소나무</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 27 2층</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>02-312-5033</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>이찌방이야기 신촌점</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 28</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 24:00', '23:30 라스트오더'], ['화', '17:00 - 24:00', '23:30 라스트오더'], ['수', '17:00 - 24:00', '23:30 라스트오더'], ['목', '17:00 - 24:00', '23:30 라스트오더'], ['금', '17:00 - 01:00', '00:30 라스트오더'], ['토', '17:00 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>02-312-5033</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>낙원스낵 신촌점</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 28</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>홍대 달동네</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>신촌관</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0507-1340-9764</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>연</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로12다길 25 1층</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더'], ['토', '18:00 - 03:00', '02:30 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 03:00', '02:30 라스트오더'], ['화', '18:00 - 03:00', '02:30 라스트오더'], ['수', '18:00 - 03:00', '02:30 라스트오더'], ['목', '18:00 - 03:00', '02:30 라스트오더'], ['금', '18:00 - 03:00', '02:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0507-1326-5404</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>히까루</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로12다길 25 1층</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0507-1421-3938</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>52nd Street</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 8 2층 히까루</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0507-1421-3938</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>우드스탁</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 8 2층 히까루</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>02-334-1310</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>송학</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 28-8</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>02-334-1310</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>오롯</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 20</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0507-1428-3555</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>올그릭투미</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>서울 마포구 백범로24길 5-5 1층 오롯</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 23:00', '14:00 - 17:30 브레이크타임', '22:00 라스트오더'], ['화', '11:30 - 23:00', '14:00 - 17:30 브레이크타임', '22:00 라스트오더'], ['수', '11:30 - 23:00', '14:00 - 17:30 브레이크타임', '22:00 라스트오더'], ['목', '11:30 - 23:00', '14:00 - 17:30 브레이크타임', '22:00 라스트오더'], ['금', '11:30 - 23:00', '14:00 - 17:30 브레이크타임', '22:00 라스트오더'], ['토', '12:00 - 23:00', '14:30 - 17:30 브레이크타임', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0507-1428-3555</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>바플라이 1호점 : 별밤</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>서울 마포구 백범로24길 5-5 1층 오롯</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0507-1327-0973</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>한식탁</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 9 2층</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['일', '17:30 - 22:00'], ['월', '17:30 - 22:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:30 - 22:00'], ['목', '17:30 - 22:00'], ['금', '17:30 - 22:00'], ['토', '17:30 - 22:00']]</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0507-1389-7958</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>향꽃</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 39</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>02-325-4064</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>오퍼스</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 39</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>02-335-7967</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>루프탑 투게더</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 18 2층</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>02-335-7967</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>고요</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 8 2층</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00', '01:30 라스트오더'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월', '18:00 - 02:00', '01:30 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0507-1366-3398</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>피망과토마토</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 8 2층</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0507-1392-9031</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>뚜이연남</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 11</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0507-1376-0679</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>링마이보틀</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로2안길 20 1층 102호</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월', '17:00 - 01:00', '00:30 라스트오더'], ['화', '17:00 - 01:00', '00:30 라스트오더'], ['수', '17:00 - 01:00', '00:30 라스트오더'], ['목', '17:00 - 01:00', '00:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['- 월요일은 예약제 우선이기에 미리 카톡문의 추천드립니다♥']]</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0507-1373-7379</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>다모토리5</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 25 지층</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '18:00 - 04:00'], ['일', '19:00 - 03:00'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '18:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>02-338-9988</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>거품1</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 10 지하1층</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>010-6256-0226</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>쉬바펍</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 10 지하1층</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>02-365-6809</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>살롱드느루</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로 42-24 지층</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>02-6080-2381</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>계단집</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 223 지하 1층</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0507-1423-2235</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>오렌지룸 신촌점</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>서울 서대문구 명물길 37 3층 오렌지룸 신촌점</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>02-365-0789</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>바코드</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>서울 서대문구 명물길 37 3층 오렌지룸 신촌점</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0507-1379-6369</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>꽁술</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 26 지하1층</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>02-6232-8848</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>바 코디얼</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 27 지하1층</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0507-1354-2827</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>한신포차 신촌점</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 26 지하</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>02-333-3284</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>치치 신촌점</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10-4 1층</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>02-332-2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>옥타</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 21 1층 치치 신촌직영점</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>02-325-8056</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>아마이</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로 21 4층</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>02-3142-7206</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>신촌아지트</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로 21 4층</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>02-313-2578</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>투다리 이대점</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>서울 서대문구 신촌로 149 1층 투다리 이대점</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일(7/9)', '휴무'], ['월', '17:00 - 02:30', '01:30 라스트오더'], ['화', '17:00 - 02:30', '01:30 라스트오더'], ['수', '17:00 - 02:30', '01:30 라스트오더'], ['목', '17:00 - 02:30', '01:30 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0507-1344-7363</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>올드패션드</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로2안길 44 1층 101호</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '19:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0507-1329-2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>미스터유</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로16길 30 1층 미스터유</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 01:00', '00:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0507-1402-1001</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>레이지리자드</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로16길 30 1층 미스터유</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>02-393-9932</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>인쌩맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 라스트오더', '5시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0507-1383-5705</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>홍대원조낙곱새</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 37 올림피아 빌딩 1층 104호</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 23:00', '22:30 라스트오더'], ['수', '12:00 - 23:00', '22:30 라스트오더'], ['목', '12:00 - 23:00', '22:30 라스트오더'], ['금', '12:00 - 23:00', '22:30 라스트오더'], ['토', '12:00 - 23:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>02-336-6667</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>맥주바다</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 14 2층</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:00 - 05:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>02-323-2201</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>두꺼비숙성횟집 홍대본점</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 14 2층</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>02-336-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>으네네 포차</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 146-1</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0507-1332-8843</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>펀비어킹 신촌 유플렉스점</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로14길 37 1층</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>02-335-5892</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>진화로</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 22</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0507-1429-0101</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>엔터엘피바</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 212-7</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0507-1490-0284</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>이자카야 류</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '18:00 - 04:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>02-337-1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>담</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>02-338-5226</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>청춘술방</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 22</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0507-1394-3633</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>야키토리연</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 4 2층</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0507-1325-6349</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>아무 (Amu)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 21</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>070-7560-5240</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>카시타 후카바 신촌점</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 21</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>[['일', '정보없음', '정보없음'], ['일', '정보없음'], ['월', '정기휴무 (매주 월요일)'], ['화', '정보없음'], ['수', '정보없음'], ['목', '정보없음'], ['금', '정보없음'], ['토', '정보없음']]</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0507-1390-7515</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>노보카인</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 36 노보카인</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 03:00'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>070-8650-7776</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>꼼보포차 신촌2호점</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 17</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:30에 라스트오더', '5시 30분에 라스트오더'], ['토', '18:00 - 06:00', '05:30 라스트오더'], ['일', '18:00 - 05:00', '04:30 라스트오더'], ['월', '18:00 - 05:00', '04:30 라스트오더'], ['화', '18:00 - 05:00', '04:30 라스트오더'], ['수', '18:00 - 05:00', '04:30 라스트오더'], ['목', '18:00 - 05:00', '04:30 라스트오더'], ['금', '18:00 - 06:00', '05:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>010-8608-6567</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Day 1</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 29 2층</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월', '19:00 - 24:00', '23:30 라스트오더'], ['화', '19:00 - 24:00', '23:30 라스트오더'], ['수', '19:00 - 24:00', '23:30 라스트오더'], ['목', '19:00 - 24:00', '23:30 라스트오더'], ['금', '19:00 - 01:00', '00:30 라스트오더'], ['토', '19:00 - 01:00', '00:30 라스트오더'], ['- * 매월 임시 휴무일 별도 공지 안내']]</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>070-8850-2482</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>다모토리</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 22</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00'], ['생방송투데이 1128회, 14.01.14.', '2014년 1월 14일', ' ']]</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>02-336-7542</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>투다리 신촌1호점</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 22</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0507-1303-4014</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>바프로</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10-7 3층 바프로</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>010-7572-9809</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>설맥 신촌점</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10-7 3층 바프로</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>02-336-6193</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>신조이자카야</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 36 지1층 우측</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00', '00:30 라스트오더'], ['일', '17:00 - 01:00', '23:30 라스트오더'], ['월', '17:00 - 01:00', '23:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '23:30 라스트오더'], ['목', '17:00 - 01:00', '23:30 라스트오더'], ['금', '17:00 - 02:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>02-3144-7110</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>크라운호프 신촌점</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 17 1층</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0507-1379-7786</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>더빠</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 17 1층</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>02-325-7805</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>포루</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>서울 마포구 백범로16안길 31 1층 바 포루(For:Ru)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '18:00 - 03:00', '02:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 03:00', '02:00 라스트오더'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['- @bar_forru 에서 변동사항 확인 가능합니다.']]</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0507-1488-1655</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>스무스</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 20 석원빌딩</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>02-333-6638</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>비어어클락</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 20 석원빌딩</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>02-333-9733</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>치즈문</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 13 2층</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0507-1367-1316</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>로실링</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>서울 서대문구 이화여대길 88-13 1층</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0507-1386-0613</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>예체능</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 26</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:30에 영업 종료', '5시 30분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0507-1313-0758</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>동화소</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10 지하 1층</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], [''], ['휴무일', '07/18-08/16']]</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0507-1402-3705</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>비틀즈</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 34-6</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>02-323-6385</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>소우 오뎅</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 34-6</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>02-322-4549</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>깃털</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 10-1</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['매일', '18:00 - 05:00', '04:30 라스트오더'], ["- 휴무공지는 인스타'연남동깃털'에서 확인해주세요."]]</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>070-4090-1162</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>떡볶이상회</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 143-3 1층</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['매일', '12:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0507-1344-7658</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>투다리 신촌2점</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>친구친구</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>02-6338-1787</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>투비위드유2</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 16-4 2층</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 24:00', '23:50 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0507-1322-2826</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>상수주택</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로15길 19 2층 상수주택</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0507-1313-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>밀림</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 220-5 B02</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '18:00 - 02:00'], ['- 5.28일 02:00까지 영업합니다']]</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0507-1361-1503</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>금호동매운닭발</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0507-1461-7630</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>젊음의행진</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 29</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>02-3141-0355</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>88노가리 연남하우스</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로36길 18 지하 1층, 1층, 2층</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '18:00 - 02:00', '01:00 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['- 공휴일 전날은 새벽 3시까지 영업 합니다.']]</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0507-1371-5912</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>가막새</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 54</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>02-326-2227</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>SOLID ACE</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 54</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>02-326-2227</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>봉구비어 신촌명물거리2호점</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 32 지하 1층</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>02-312-6859</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>해신포차</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>서울 서대문구 명물길 41</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>02-312-6859</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>다트펍 신촌상회</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 28</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>010-9404-1703</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 연대가든점</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 18 아주빌딩 3층</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>010-9404-1703</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>러프2</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 18 아주빌딩 3층</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>[['곧 영업 종료', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>010-9404-1703</t>
         </is>
       </c>
     </row>
